--- a/Ch07Tsk01/cost estimate.xlsx
+++ b/Ch07Tsk01/cost estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawei/Documents/School/Courses/Project Management/Repo/Project-Management-Year-4-Semister-1/Ch07Tsk01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A7E68A-9803-DB43-BF2C-6FC0EE05766B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13A5A2E-FBB5-1946-B554-778A5AC84CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{5C3CD477-5BE3-C44A-AAD1-CA617BC3359F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5C3CD477-5BE3-C44A-AAD1-CA617BC3359F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD29CD4-C6DA-7541-861B-52835664CC70}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,18 +579,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -776,10 +776,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <f t="shared" ref="D13:D26" si="2">B13*C13</f>
-        <v>0</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
@@ -821,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D13:D26" si="2">B16*C16</f>
         <v>600</v>
       </c>
       <c r="E16" s="3"/>
@@ -1026,7 +1023,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
     </row>
